--- a/Library Gantt Agile.xlsx
+++ b/Library Gantt Agile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAD6831-AEBF-4187-971A-60EDBA11A9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49810A59-E0F6-4A80-89E3-F1DC490E9756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2982,8 +2982,8 @@
   </sheetPr>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B40" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4044,7 +4044,7 @@
         <v>74</v>
       </c>
       <c r="E10" s="26">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>77</v>
@@ -4122,7 +4122,7 @@
         <v>74</v>
       </c>
       <c r="E11" s="26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.97</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>77</v>
@@ -4200,7 +4200,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="26">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>77</v>
@@ -4278,7 +4278,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="26">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="F13" s="27">
         <v>43841</v>
@@ -4524,7 +4524,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="55">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F14" s="56">
         <v>43841</v>
@@ -4734,7 +4734,7 @@
         <v/>
       </c>
       <c r="BG14" s="49" t="str">
-        <f t="shared" ref="BG14:BP18" ca="1" si="14">IF(AND($C15="Mục tiêu",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),2,IF(AND($C15="Mốc",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ref="BG14:BL18" ca="1" si="14">IF(AND($C15="Mục tiêu",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),2,IF(AND($C15="Mốc",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="BH14" s="49" t="str">
@@ -4770,7 +4770,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="27">
         <v>43841</v>
@@ -5252,7 +5252,7 @@
         <v>74</v>
       </c>
       <c r="E17" s="26">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F17" s="27">
         <v>43993</v>
@@ -5498,7 +5498,7 @@
         <v>74</v>
       </c>
       <c r="E18" s="26">
-        <v>7.0000000000000007E-2</v>
+        <v>0.97</v>
       </c>
       <c r="F18" s="27">
         <v>44146</v>
@@ -5744,7 +5744,7 @@
         <v>74</v>
       </c>
       <c r="E19" s="26">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="F19" s="27">
         <v>43993</v>
@@ -5890,7 +5890,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="26">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="F21" s="27">
         <v>43993</v>
@@ -6100,7 +6100,7 @@
         <v/>
       </c>
       <c r="BG21" s="49" t="str">
-        <f t="shared" ref="BG21:BP23" ca="1" si="20">IF(AND($C20="Mục tiêu",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Mốc",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="BG21:BL23" ca="1" si="20">IF(AND($C20="Mục tiêu",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Mốc",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="BH21" s="49" t="str">
@@ -6136,7 +6136,7 @@
         <v>74</v>
       </c>
       <c r="E22" s="26">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F22" s="27">
         <v>44146</v>
@@ -6382,7 +6382,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="26">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>78</v>
@@ -6628,7 +6628,7 @@
         <v>74</v>
       </c>
       <c r="E24" s="26">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F24" s="27">
         <v>44176</v>
@@ -6706,7 +6706,7 @@
         <v>74</v>
       </c>
       <c r="E25" s="26">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>78</v>
@@ -6852,7 +6852,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>81</v>
@@ -6930,7 +6930,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>80</v>
@@ -7076,7 +7076,7 @@
         <v>76</v>
       </c>
       <c r="E30" s="55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F30" s="56" t="s">
         <v>82</v>
@@ -7156,7 +7156,7 @@
         <v>76</v>
       </c>
       <c r="E31" s="55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F31" s="56" t="s">
         <v>79</v>
@@ -7302,7 +7302,7 @@
         <v>76</v>
       </c>
       <c r="E33" s="55">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F33" s="56" t="s">
         <v>84</v>
@@ -7379,7 +7379,7 @@
         <v>76</v>
       </c>
       <c r="E34" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="56" t="s">
         <v>83</v>
@@ -7456,7 +7456,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="26">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F35" s="56" t="s">
         <v>82</v>
@@ -7486,7 +7486,7 @@
         <v>75</v>
       </c>
       <c r="E37" s="58">
-        <v>0.09</v>
+        <v>0.98</v>
       </c>
       <c r="F37" s="56" t="s">
         <v>85</v>
@@ -7506,7 +7506,7 @@
         <v>75</v>
       </c>
       <c r="E38" s="55">
-        <v>0.08</v>
+        <v>0.95</v>
       </c>
       <c r="F38" s="56">
         <v>43994</v>
@@ -7526,7 +7526,7 @@
         <v>75</v>
       </c>
       <c r="E39" s="55">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="F39" s="56">
         <v>43963</v>
@@ -7556,7 +7556,7 @@
         <v>75</v>
       </c>
       <c r="E41" s="55">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F41" s="56">
         <v>43933</v>
@@ -7576,7 +7576,7 @@
         <v>75</v>
       </c>
       <c r="E42" s="55">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="F42" s="56">
         <v>44116</v>
@@ -7596,7 +7596,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.97</v>
       </c>
       <c r="F43" s="56">
         <v>44086</v>
@@ -7626,7 +7626,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="55">
-        <v>0.08</v>
+        <v>0.98</v>
       </c>
       <c r="F45" s="56">
         <v>44177</v>
@@ -7646,7 +7646,7 @@
         <v>75</v>
       </c>
       <c r="E46" s="55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.97</v>
       </c>
       <c r="F46" s="56" t="s">
         <v>86</v>
@@ -7666,7 +7666,7 @@
         <v>75</v>
       </c>
       <c r="E47" s="26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F47" s="27" t="s">
         <v>87</v>
